--- a/test/fixture/encrypted.xlsx
+++ b/test/fixture/encrypted.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>type</t>
   </si>
@@ -151,6 +151,9 @@
     <t>public_key</t>
   </si>
   <si>
+    <t>instance_name</t>
+  </si>
+  <si>
     <t>Party</t>
   </si>
   <si>
@@ -170,6 +173,9 @@
   </si>
   <si>
     <t>AAAAB3NzaC1yc2EAAAADAQABAAABAQDdliXm5P4yBTyL57DzcRnVAAz0hKnm00MM00qBN7jC49ilV0tG3uw/0hC1+kFKwcgIE28vm92Fscdggop+YzFju2nIMoxQPbuCKLDEri94pwW5A/MFdppVaflPIcBg5Ghszm7KFv5UD1DFRLFHil0yXoM8ss1tlRLHd8T1v2eqlF1nLYEU6moNE5XZ4azPiTTzSaWXmA8/aV9O9+cxVtk34KpW39XSHYzMO79xn+OG5qpBt6ctr888KfjrJZom41hfOse8MKuxq9naKKizul/81etK8hUYgd+ABwFa1QM6eKluSN9cTtE1J0TsIVe6d4Df+YANq17qb7o5sClOoUdl</t>
+  </si>
+  <si>
+    <t>concat(${lname}, '-', ${fname}, '-', uuid())</t>
   </si>
 </sst>
 </file>
@@ -179,7 +185,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -227,29 +233,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Ubuntu"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Ubuntu"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Ubuntu"/>
       <family val="0"/>
@@ -298,7 +281,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -323,19 +306,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -356,9 +327,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -396,6 +367,8 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
@@ -475,6 +448,7 @@
         <v>23</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -609,11 +583,11 @@
   </sheetPr>
   <dimension ref="1:3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.5714285714286"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.4948979591837"/>
@@ -622,64 +596,65 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.3214285714286"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.2959183673469"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="68.2857142857143"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="1" width="8.70918367346939"/>
-    <col collapsed="false" hidden="false" max="1022" min="11" style="1" width="17.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="17.2857142857143"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="33.9030612244898"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.70918367346939"/>
+    <col collapsed="false" hidden="false" max="1023" min="10" style="1" width="17.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="17.2857142857143"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="AMI1" s="7"/>
-      <c r="AMJ1" s="7"/>
+      <c r="H1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="105" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="G2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/test/fixture/encrypted.xlsx
+++ b/test/fixture/encrypted.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -58,7 +58,7 @@
     <t>3. May I take your picture?</t>
   </si>
   <si>
-    <t>select one from yes_no</t>
+    <t>select_one yes_no</t>
   </si>
   <si>
     <t>has_children</t>
@@ -79,7 +79,7 @@
     <t>Make sure the precision is less than 25 meters</t>
   </si>
   <si>
-    <t>select all that apply from browsers</t>
+    <t>select_multiple browsers</t>
   </si>
   <si>
     <t>web_browsers</t>
@@ -91,7 +91,7 @@
     <t>Select all that apply</t>
   </si>
   <si>
-    <t>list name</t>
+    <t>list_name</t>
   </si>
   <si>
     <t>yes_no</t>
@@ -330,15 +330,15 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.8622448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="41.1377551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.7091836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.0510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.3826530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.3571428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="38.25"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.1377551020408"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="32.1377551020408"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="17.2857142857143"/>
@@ -467,15 +467,15 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.4285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.8622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.48469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.68367346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.4591836734694"/>
     <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.70918367346939"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="17.2857142857143"/>
   </cols>
@@ -583,18 +583,18 @@
   </sheetPr>
   <dimension ref="1:3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.4948979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.0510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.65816326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.3214285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.2959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.6071428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.8571428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.82142857142857"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.35204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="27.0867346938776"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="68.2857142857143"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="33.9030612244898"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.70918367346939"/>
